--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="73">
   <si>
     <t>Code</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Diodes</t>
   </si>
   <si>
-    <t>Transistors</t>
-  </si>
-  <si>
     <t>BT1</t>
   </si>
   <si>
@@ -147,12 +144,6 @@
     <t>Common cathode RGB LED</t>
   </si>
   <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>NPN transistor</t>
-  </si>
-  <si>
     <t>J1</t>
   </si>
   <si>
@@ -186,9 +177,6 @@
     <t>(1µ)</t>
   </si>
   <si>
-    <t>R14</t>
-  </si>
-  <si>
     <t>82 ohm, 0.25W</t>
   </si>
   <si>
@@ -235,6 +223,18 @@
   </si>
   <si>
     <t>10k</t>
+  </si>
+  <si>
+    <t>J2</t>
+  </si>
+  <si>
+    <t>Short horizontally</t>
+  </si>
+  <si>
+    <t>Short vertically</t>
+  </si>
+  <si>
+    <t>Selects mode A or B</t>
   </si>
 </sst>
 </file>
@@ -608,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D45"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -623,7 +623,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>1</v>
@@ -642,10 +642,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="B4" s="6" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -658,10 +658,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -669,10 +669,10 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -682,35 +682,35 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="2">
         <v>33</v>
@@ -719,7 +719,7 @@
         <v>33</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -727,15 +727,15 @@
         <v>6</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="2">
         <v>82</v>
@@ -746,24 +746,24 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16" s="2">
         <v>82</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17" s="2">
         <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -774,7 +774,7 @@
         <v>750</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -785,7 +785,7 @@
         <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -807,7 +807,7 @@
         <v>120</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -818,7 +818,7 @@
         <v>240</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -826,56 +826,59 @@
         <v>12</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>30</v>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="3" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="3" t="s">
-        <v>13</v>
+      <c r="A26" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="2" t="s">
-        <v>14</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B28" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="3" t="s">
-        <v>15</v>
+      <c r="B30" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -883,13 +886,13 @@
         <v>33</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -897,13 +900,13 @@
         <v>34</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -914,10 +917,10 @@
         <v>39</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -928,10 +931,10 @@
         <v>40</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -939,104 +942,88 @@
         <v>37</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>31</v>
-      </c>
       <c r="D35" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C36" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D36" s="5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="3" t="s">
-        <v>16</v>
+      <c r="B38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>44</v>
+        <v>71</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="3" t="s">
-        <v>53</v>
+      <c r="A41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
